--- a/biology/Zoologie/Cyprinodon_longidorsalis/Cyprinodon_longidorsalis.xlsx
+++ b/biology/Zoologie/Cyprinodon_longidorsalis/Cyprinodon_longidorsalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyprinodon longidorsalis est une espèce de poissons de la famille des Cyprinodontidae. Elle était endémique du sud-ouest du Nuevo León, au Mexique.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est unique en ayant les caractères suivants : une longue dorsale déprimée atteignant postérieurement des 3/4 de la longueur du pédoncule caudal à la base caudale ; origine dorsale devant la nageoire pelvienne ; 0-2 dents sur le quatrième cératobranchial ; lèvres aussi épaisses ou plus épaisses que le diamètre de la pupille, plus basses une large avec un pli marqué dans la fente ; mâles bleu doré de la tête au corps, avec 7-8 barres, les 3-4 premières seulement sur le dos, les autres à évent ; femelles avec ocellus central régulier de la nageoire dorsale plus grande que la pupille[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est unique en ayant les caractères suivants : une longue dorsale déprimée atteignant postérieurement des 3/4 de la longueur du pédoncule caudal à la base caudale ; origine dorsale devant la nageoire pelvienne ; 0-2 dents sur le quatrième cératobranchial ; lèvres aussi épaisses ou plus épaisses que le diamètre de la pupille, plus basses une large avec un pli marqué dans la fente ; mâles bleu doré de la tête au corps, avec 7-8 barres, les 3-4 premières seulement sur le dos, les autres à évent ; femelles avec ocellus central régulier de la nageoire dorsale plus grande que la pupille.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est considérée comme éteinte à l'état sauvage par l'UICN[2],[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est considérée comme éteinte à l'état sauvage par l'UICN.
 </t>
         </is>
       </c>
